--- a/data/TexasCOVID19DailyCountyCaseCountData.xlsx
+++ b/data/TexasCOVID19DailyCountyCaseCountData.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="634">
   <si>
-    <t>COVID-19 Total Cases by County, 3/4/2020 - 06/24/20 at 9:30 AM CST</t>
+    <t>COVID-19 Total Cases by County, 3/4/2020 - 06/25/20 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -1816,6 +1816,9 @@
   </si>
   <si>
     <t>Cases 06-24</t>
+  </si>
+  <si>
+    <t>Cases 06-25</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -3616,6 +3619,7 @@
     <col min="110" max="110" width="12.0" customWidth="true"/>
     <col min="111" max="111" width="12.0" customWidth="true"/>
     <col min="112" max="112" width="12.0" customWidth="true"/>
+    <col min="113" max="113" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3965,13 +3969,16 @@
       <c r="DH3" t="s" s="10">
         <v>113</v>
       </c>
+      <c r="DI3" t="s" s="10">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -4302,14 +4309,17 @@
       </c>
       <c r="DH4" t="n">
         <v>1013.0</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>1014.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -4640,14 +4650,17 @@
       </c>
       <c r="DH5" t="n">
         <v>46.0</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -4978,14 +4991,17 @@
       </c>
       <c r="DH6" t="n">
         <v>426.0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>445.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -5315,15 +5331,18 @@
         <v>10.0</v>
       </c>
       <c r="DH7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -5653,15 +5672,18 @@
         <v>4.0</v>
       </c>
       <c r="DH8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -5991,15 +6013,18 @@
         <v>3.0</v>
       </c>
       <c r="DH9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -6330,14 +6355,17 @@
       </c>
       <c r="DH10" t="n">
         <v>84.0</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -6667,15 +6695,18 @@
         <v>56.0</v>
       </c>
       <c r="DH11" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="DI11" t="n">
         <v>57.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -7006,14 +7037,17 @@
       </c>
       <c r="DH12" t="n">
         <v>86.0</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -7343,15 +7377,18 @@
         <v>16.0</v>
       </c>
       <c r="DH13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DI13" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -7682,14 +7719,17 @@
       </c>
       <c r="DH14" t="n">
         <v>373.0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>386.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -8019,15 +8059,18 @@
         <v>1.0</v>
       </c>
       <c r="DH15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI15" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -8358,14 +8401,17 @@
       </c>
       <c r="DH16" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -8696,14 +8742,17 @@
       </c>
       <c r="DH17" t="n">
         <v>925.0</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>1009.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -9034,14 +9083,17 @@
       </c>
       <c r="DH18" t="n">
         <v>7467.0</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>7814.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -9371,15 +9423,18 @@
         <v>24.0</v>
       </c>
       <c r="DH19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -9709,15 +9764,18 @@
         <v>0.0</v>
       </c>
       <c r="DH20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -10047,15 +10105,18 @@
         <v>10.0</v>
       </c>
       <c r="DH21" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -10386,14 +10447,17 @@
       </c>
       <c r="DH22" t="n">
         <v>406.0</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>413.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -10724,14 +10788,17 @@
       </c>
       <c r="DH23" t="n">
         <v>1838.0</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>1913.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -11062,14 +11129,17 @@
       </c>
       <c r="DH24" t="n">
         <v>1305.0</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>1377.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C25" t="n">
         <v>0.0</v>
@@ -11400,14 +11470,17 @@
       </c>
       <c r="DH25" t="n">
         <v>61.0</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -11738,14 +11811,17 @@
       </c>
       <c r="DH26" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -12075,15 +12151,18 @@
         <v>3.0</v>
       </c>
       <c r="DH27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI27" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
@@ -12414,14 +12493,17 @@
       </c>
       <c r="DH28" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DI28" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -12752,14 +12834,17 @@
       </c>
       <c r="DH29" t="n">
         <v>67.0</v>
+      </c>
+      <c r="DI29" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -13089,15 +13174,18 @@
         <v>97.0</v>
       </c>
       <c r="DH30" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="DI30" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -13427,15 +13515,18 @@
         <v>275.0</v>
       </c>
       <c r="DH31" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="DI31" t="n">
         <v>286.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -13766,14 +13857,17 @@
       </c>
       <c r="DH32" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DI32" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -14103,15 +14197,18 @@
         <v>13.0</v>
       </c>
       <c r="DH33" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DI33" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
@@ -14442,14 +14539,17 @@
       </c>
       <c r="DH34" t="n">
         <v>1758.0</v>
+      </c>
+      <c r="DI34" t="n">
+        <v>1881.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -14779,15 +14879,18 @@
         <v>110.0</v>
       </c>
       <c r="DH35" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="DI35" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -15117,15 +15220,18 @@
         <v>6.0</v>
       </c>
       <c r="DH36" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="DI36" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
@@ -15456,14 +15562,17 @@
       </c>
       <c r="DH37" t="n">
         <v>36.0</v>
+      </c>
+      <c r="DI37" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
@@ -15794,14 +15903,17 @@
       </c>
       <c r="DH38" t="n">
         <v>65.0</v>
+      </c>
+      <c r="DI38" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C39" t="n">
         <v>0.0</v>
@@ -16132,14 +16244,17 @@
       </c>
       <c r="DH39" t="n">
         <v>181.0</v>
+      </c>
+      <c r="DI39" t="n">
+        <v>191.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
@@ -16470,14 +16585,17 @@
       </c>
       <c r="DH40" t="n">
         <v>82.0</v>
+      </c>
+      <c r="DI40" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -16807,15 +16925,18 @@
         <v>6.0</v>
       </c>
       <c r="DH41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DI41" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -17145,15 +17266,18 @@
         <v>5.0</v>
       </c>
       <c r="DH42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI42" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" t="n">
         <v>0.0</v>
@@ -17483,15 +17607,18 @@
         <v>1.0</v>
       </c>
       <c r="DH43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI43" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -17821,15 +17948,18 @@
         <v>5.0</v>
       </c>
       <c r="DH44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI44" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -18159,15 +18289,18 @@
         <v>3.0</v>
       </c>
       <c r="DH45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
@@ -18498,14 +18631,17 @@
       </c>
       <c r="DH46" t="n">
         <v>2359.0</v>
+      </c>
+      <c r="DI46" t="n">
+        <v>2449.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -18835,15 +18971,18 @@
         <v>5.0</v>
       </c>
       <c r="DH47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI47" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
@@ -19174,14 +19313,17 @@
       </c>
       <c r="DH48" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DI48" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" t="n">
         <v>0.0</v>
@@ -19512,14 +19654,17 @@
       </c>
       <c r="DH49" t="n">
         <v>332.0</v>
+      </c>
+      <c r="DI49" t="n">
+        <v>374.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" t="n">
         <v>0.0</v>
@@ -19849,15 +19994,18 @@
         <v>14.0</v>
       </c>
       <c r="DH50" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DI50" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C51" t="n">
         <v>0.0</v>
@@ -20188,14 +20336,17 @@
       </c>
       <c r="DH51" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
@@ -20525,15 +20676,18 @@
         <v>30.0</v>
       </c>
       <c r="DH52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DI52" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C53" t="n">
         <v>0.0</v>
@@ -20864,14 +21018,17 @@
       </c>
       <c r="DH53" t="n">
         <v>322.0</v>
+      </c>
+      <c r="DI53" t="n">
+        <v>321.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C54" t="n">
         <v>0.0</v>
@@ -21201,15 +21358,18 @@
         <v>4.0</v>
       </c>
       <c r="DH54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DI54" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -21540,14 +21700,17 @@
       </c>
       <c r="DH55" t="n">
         <v>48.0</v>
+      </c>
+      <c r="DI55" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C56" t="n">
         <v>0.0</v>
@@ -21877,15 +22040,18 @@
         <v>5.0</v>
       </c>
       <c r="DH56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI56" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C57" t="n">
         <v>0.0</v>
@@ -22215,15 +22381,18 @@
         <v>9.0</v>
       </c>
       <c r="DH57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DI57" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C58" t="n">
         <v>0.0</v>
@@ -22553,15 +22722,18 @@
         <v>3.0</v>
       </c>
       <c r="DH58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI58" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C59" t="n">
         <v>0.0</v>
@@ -22892,14 +23064,17 @@
       </c>
       <c r="DH59" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DI59" t="n">
+        <v>79.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C60" t="n">
         <v>0.0</v>
@@ -23230,14 +23405,17 @@
       </c>
       <c r="DH60" t="n">
         <v>17744.0</v>
+      </c>
+      <c r="DI60" t="n">
+        <v>18135.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C61" t="n">
         <v>0.0</v>
@@ -23567,15 +23745,18 @@
         <v>45.0</v>
       </c>
       <c r="DH61" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DI61" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C62" t="n">
         <v>0.0</v>
@@ -23906,14 +24087,17 @@
       </c>
       <c r="DH62" t="n">
         <v>262.0</v>
+      </c>
+      <c r="DI62" t="n">
+        <v>268.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C63" t="n">
         <v>0.0</v>
@@ -24243,15 +24427,18 @@
         <v>4.0</v>
       </c>
       <c r="DH63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI63" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C64" t="n">
         <v>0.0</v>
@@ -24582,14 +24769,17 @@
       </c>
       <c r="DH64" t="n">
         <v>2302.0</v>
+      </c>
+      <c r="DI64" t="n">
+        <v>2417.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C65" t="n">
         <v>0.0</v>
@@ -24920,14 +25110,17 @@
       </c>
       <c r="DH65" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DI65" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C66" t="n">
         <v>0.0</v>
@@ -25257,15 +25450,18 @@
         <v>2.0</v>
       </c>
       <c r="DH66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI66" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C67" t="n">
         <v>0.0</v>
@@ -25596,14 +25792,17 @@
       </c>
       <c r="DH67" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DI67" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" t="n">
         <v>0.0</v>
@@ -25933,15 +26132,18 @@
         <v>27.0</v>
       </c>
       <c r="DH68" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="DI68" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C69" t="n">
         <v>0.0</v>
@@ -26272,14 +26474,17 @@
       </c>
       <c r="DH69" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DI69" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C70" t="n">
         <v>0.0</v>
@@ -26609,15 +26814,18 @@
         <v>7.0</v>
       </c>
       <c r="DH70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DI70" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C71" t="n">
         <v>0.0</v>
@@ -26948,14 +27156,17 @@
       </c>
       <c r="DH71" t="n">
         <v>396.0</v>
+      </c>
+      <c r="DI71" t="n">
+        <v>434.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C72" t="n">
         <v>0.0</v>
@@ -27286,14 +27497,17 @@
       </c>
       <c r="DH72" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DI72" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C73" t="n">
         <v>0.0</v>
@@ -27623,15 +27837,18 @@
         <v>539.0</v>
       </c>
       <c r="DH73" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="DI73" t="n">
         <v>684.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C74" t="n">
         <v>0.0</v>
@@ -27962,14 +28179,17 @@
       </c>
       <c r="DH74" t="n">
         <v>4809.0</v>
+      </c>
+      <c r="DI74" t="n">
+        <v>4984.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C75" t="n">
         <v>0.0</v>
@@ -28299,15 +28519,18 @@
         <v>44.0</v>
       </c>
       <c r="DH75" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DI75" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C76" t="n">
         <v>0.0</v>
@@ -28637,15 +28860,18 @@
         <v>25.0</v>
       </c>
       <c r="DH76" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="DI76" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C77" t="n">
         <v>0.0</v>
@@ -28975,15 +29201,18 @@
         <v>67.0</v>
       </c>
       <c r="DH77" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="DI77" t="n">
         <v>82.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
@@ -29314,14 +29543,17 @@
       </c>
       <c r="DH78" t="n">
         <v>75.0</v>
+      </c>
+      <c r="DI78" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C79" t="n">
         <v>0.0</v>
@@ -29651,15 +29883,18 @@
         <v>2.0</v>
       </c>
       <c r="DH79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI79" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C80" t="n">
         <v>0.0</v>
@@ -29990,14 +30225,17 @@
       </c>
       <c r="DH80" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DI80" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -30327,15 +30565,18 @@
         <v>0.0</v>
       </c>
       <c r="DH81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C82" t="n">
         <v>0.0</v>
@@ -30666,14 +30907,17 @@
       </c>
       <c r="DH82" t="n">
         <v>3176.0</v>
+      </c>
+      <c r="DI82" t="n">
+        <v>3267.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C83" t="n">
         <v>0.0</v>
@@ -31004,14 +31248,17 @@
       </c>
       <c r="DH83" t="n">
         <v>35.0</v>
+      </c>
+      <c r="DI83" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C84" t="n">
         <v>0.0</v>
@@ -31342,14 +31589,17 @@
       </c>
       <c r="DH84" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DI84" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C85" t="n">
         <v>0.0</v>
@@ -31679,15 +31929,18 @@
         <v>142.0</v>
       </c>
       <c r="DH85" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="DI85" t="n">
         <v>157.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C86" t="n">
         <v>0.0</v>
@@ -32018,14 +32271,17 @@
       </c>
       <c r="DH86" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DI86" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B87" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C87" t="n">
         <v>0.0</v>
@@ -32356,14 +32612,17 @@
       </c>
       <c r="DH87" t="n">
         <v>2040.0</v>
+      </c>
+      <c r="DI87" t="n">
+        <v>2266.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C88" t="n">
         <v>0.0</v>
@@ -32694,14 +32953,17 @@
       </c>
       <c r="DH88" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DI88" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B89" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C89" t="n">
         <v>0.0</v>
@@ -33032,14 +33294,17 @@
       </c>
       <c r="DH89" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DI89" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -33369,15 +33634,18 @@
         <v>5.0</v>
       </c>
       <c r="DH90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI90" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C91" t="n">
         <v>0.0</v>
@@ -33708,14 +33976,17 @@
       </c>
       <c r="DH91" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DI91" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C92" t="n">
         <v>0.0</v>
@@ -34046,14 +34317,17 @@
       </c>
       <c r="DH92" t="n">
         <v>231.0</v>
+      </c>
+      <c r="DI92" t="n">
+        <v>235.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B93" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C93" t="n">
         <v>0.0</v>
@@ -34383,15 +34657,18 @@
         <v>113.0</v>
       </c>
       <c r="DH93" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="DI93" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C94" t="n">
         <v>0.0</v>
@@ -34722,14 +34999,17 @@
       </c>
       <c r="DH94" t="n">
         <v>537.0</v>
+      </c>
+      <c r="DI94" t="n">
+        <v>547.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C95" t="n">
         <v>0.0</v>
@@ -35060,14 +35340,17 @@
       </c>
       <c r="DH95" t="n">
         <v>313.0</v>
+      </c>
+      <c r="DI95" t="n">
+        <v>315.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C96" t="n">
         <v>0.0</v>
@@ -35398,14 +35681,17 @@
       </c>
       <c r="DH96" t="n">
         <v>312.0</v>
+      </c>
+      <c r="DI96" t="n">
+        <v>322.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C97" t="n">
         <v>0.0</v>
@@ -35736,14 +36022,17 @@
       </c>
       <c r="DH97" t="n">
         <v>467.0</v>
+      </c>
+      <c r="DI97" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B98" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C98" t="n">
         <v>0.0</v>
@@ -36074,14 +36363,17 @@
       </c>
       <c r="DH98" t="n">
         <v>178.0</v>
+      </c>
+      <c r="DI98" t="n">
+        <v>214.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B99" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C99" t="n">
         <v>0.0</v>
@@ -36411,15 +36703,18 @@
         <v>2.0</v>
       </c>
       <c r="DH99" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI99" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C100" t="n">
         <v>0.0</v>
@@ -36749,15 +37044,18 @@
         <v>19.0</v>
       </c>
       <c r="DH100" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DI100" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B101" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C101" t="n">
         <v>0.0</v>
@@ -37088,14 +37386,17 @@
       </c>
       <c r="DH101" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DI101" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B102" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C102" t="n">
         <v>0.0</v>
@@ -37425,15 +37726,18 @@
         <v>4.0</v>
       </c>
       <c r="DH102" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DI102" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C103" t="n">
         <v>0.0</v>
@@ -37764,14 +38068,17 @@
       </c>
       <c r="DH103" t="n">
         <v>205.0</v>
+      </c>
+      <c r="DI103" t="n">
+        <v>211.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C104" t="n">
         <v>0.0</v>
@@ -38102,14 +38409,17 @@
       </c>
       <c r="DH104" t="n">
         <v>24421.0</v>
+      </c>
+      <c r="DI104" t="n">
+        <v>25786.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C105" t="n">
         <v>0.0</v>
@@ -38440,14 +38750,17 @@
       </c>
       <c r="DH105" t="n">
         <v>279.0</v>
+      </c>
+      <c r="DI105" t="n">
+        <v>281.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C106" t="n">
         <v>0.0</v>
@@ -38777,15 +39090,18 @@
         <v>13.0</v>
       </c>
       <c r="DH106" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="DI106" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C107" t="n">
         <v>0.0</v>
@@ -39115,15 +39431,18 @@
         <v>4.0</v>
       </c>
       <c r="DH107" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DI107" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C108" t="n">
         <v>0.0</v>
@@ -39454,14 +39773,17 @@
       </c>
       <c r="DH108" t="n">
         <v>2001.0</v>
+      </c>
+      <c r="DI108" t="n">
+        <v>2194.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B109" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C109" t="n">
         <v>0.0</v>
@@ -39792,14 +40114,17 @@
       </c>
       <c r="DH109" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DI109" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C110" t="n">
         <v>0.0</v>
@@ -40130,14 +40455,17 @@
       </c>
       <c r="DH110" t="n">
         <v>104.0</v>
+      </c>
+      <c r="DI110" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C111" t="n">
         <v>0.0</v>
@@ -40468,14 +40796,17 @@
       </c>
       <c r="DH111" t="n">
         <v>2130.0</v>
+      </c>
+      <c r="DI111" t="n">
+        <v>2503.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C112" t="n">
         <v>0.0</v>
@@ -40806,14 +41137,17 @@
       </c>
       <c r="DH112" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DI112" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C113" t="n">
         <v>0.0</v>
@@ -41143,15 +41477,18 @@
         <v>30.0</v>
       </c>
       <c r="DH113" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DI113" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C114" t="n">
         <v>0.0</v>
@@ -41481,15 +41818,18 @@
         <v>36.0</v>
       </c>
       <c r="DH114" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="DI114" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B115" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C115" t="n">
         <v>0.0</v>
@@ -41820,14 +42160,17 @@
       </c>
       <c r="DH115" t="n">
         <v>51.0</v>
+      </c>
+      <c r="DI115" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C116" t="n">
         <v>0.0</v>
@@ -42157,15 +42500,18 @@
         <v>153.0</v>
       </c>
       <c r="DH116" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="DI116" t="n">
         <v>157.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C117" t="n">
         <v>0.0</v>
@@ -42496,14 +42842,17 @@
       </c>
       <c r="DH117" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DI117" t="n">
+        <v>34.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C118" t="n">
         <v>0.0</v>
@@ -42833,15 +43182,18 @@
         <v>14.0</v>
       </c>
       <c r="DH118" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DI118" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B119" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C119" t="n">
         <v>0.0</v>
@@ -43172,14 +43524,17 @@
       </c>
       <c r="DH119" t="n">
         <v>319.0</v>
+      </c>
+      <c r="DI119" t="n">
+        <v>330.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B120" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C120" t="n">
         <v>0.0</v>
@@ -43510,14 +43865,17 @@
       </c>
       <c r="DH120" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DI120" t="n">
+        <v>55.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -43847,15 +44205,18 @@
         <v>1.0</v>
       </c>
       <c r="DH121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI121" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B122" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C122" t="n">
         <v>0.0</v>
@@ -44185,15 +44546,18 @@
         <v>6.0</v>
       </c>
       <c r="DH122" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DI122" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B123" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C123" t="n">
         <v>0.0</v>
@@ -44524,14 +44888,17 @@
       </c>
       <c r="DH123" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DI123" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C124" t="n">
         <v>0.0</v>
@@ -44862,14 +45229,17 @@
       </c>
       <c r="DH124" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DI124" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C125" t="n">
         <v>0.0</v>
@@ -45199,15 +45569,18 @@
         <v>0.0</v>
       </c>
       <c r="DH125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B126" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C126" t="n">
         <v>0.0</v>
@@ -45538,14 +45911,17 @@
       </c>
       <c r="DH126" t="n">
         <v>1486.0</v>
+      </c>
+      <c r="DI126" t="n">
+        <v>1520.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B127" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C127" t="n">
         <v>0.0</v>
@@ -45876,14 +46252,17 @@
       </c>
       <c r="DH127" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DI127" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C128" t="n">
         <v>0.0</v>
@@ -46214,14 +46593,17 @@
       </c>
       <c r="DH128" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DI128" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C129" t="n">
         <v>0.0</v>
@@ -46551,15 +46933,18 @@
         <v>267.0</v>
       </c>
       <c r="DH129" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="DI129" t="n">
         <v>314.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C130" t="n">
         <v>0.0</v>
@@ -46889,15 +47274,18 @@
         <v>604.0</v>
       </c>
       <c r="DH130" t="n">
+        <v>604.0</v>
+      </c>
+      <c r="DI130" t="n">
         <v>604.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B131" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C131" t="n">
         <v>0.0</v>
@@ -47228,14 +47616,17 @@
       </c>
       <c r="DH131" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DI131" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C132" t="n">
         <v>0.0</v>
@@ -47565,15 +47956,18 @@
         <v>374.0</v>
       </c>
       <c r="DH132" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="DI132" t="n">
         <v>490.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B133" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C133" t="n">
         <v>0.0</v>
@@ -47904,14 +48298,17 @@
       </c>
       <c r="DH133" t="n">
         <v>56.0</v>
+      </c>
+      <c r="DI133" t="n">
+        <v>58.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C134" t="n">
         <v>0.0</v>
@@ -48241,15 +48638,18 @@
         <v>0.0</v>
       </c>
       <c r="DH134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B135" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C135" t="n">
         <v>0.0</v>
@@ -48579,15 +48979,18 @@
         <v>0.0</v>
       </c>
       <c r="DH135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B136" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C136" t="n">
         <v>0.0</v>
@@ -48918,14 +49321,17 @@
       </c>
       <c r="DH136" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DI136" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B137" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C137" t="n">
         <v>0.0</v>
@@ -49255,15 +49661,18 @@
         <v>1.0</v>
       </c>
       <c r="DH137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI137" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B138" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C138" t="n">
         <v>0.0</v>
@@ -49593,15 +50002,18 @@
         <v>0.0</v>
       </c>
       <c r="DH138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C139" t="n">
         <v>0.0</v>
@@ -49931,15 +50343,18 @@
         <v>3.0</v>
       </c>
       <c r="DH139" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI139" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C140" t="n">
         <v>0.0</v>
@@ -50270,14 +50685,17 @@
       </c>
       <c r="DH140" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DI140" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C141" t="n">
         <v>0.0</v>
@@ -50607,15 +51025,18 @@
         <v>1.0</v>
       </c>
       <c r="DH141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI141" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C142" t="n">
         <v>0.0</v>
@@ -50946,14 +51367,17 @@
       </c>
       <c r="DH142" t="n">
         <v>230.0</v>
+      </c>
+      <c r="DI142" t="n">
+        <v>238.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C143" t="n">
         <v>0.0</v>
@@ -51284,14 +51708,17 @@
       </c>
       <c r="DH143" t="n">
         <v>32.0</v>
+      </c>
+      <c r="DI143" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C144" t="n">
         <v>0.0</v>
@@ -51621,15 +52048,18 @@
         <v>19.0</v>
       </c>
       <c r="DH144" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DI144" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C145" t="n">
         <v>0.0</v>
@@ -51959,15 +52389,18 @@
         <v>7.0</v>
       </c>
       <c r="DH145" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DI145" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C146" t="n">
         <v>0.0</v>
@@ -52298,14 +52731,17 @@
       </c>
       <c r="DH146" t="n">
         <v>99.0</v>
+      </c>
+      <c r="DI146" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B147" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C147" t="n">
         <v>0.0</v>
@@ -52636,14 +53072,17 @@
       </c>
       <c r="DH147" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DI147" t="n">
+        <v>54.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B148" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C148" t="n">
         <v>0.0</v>
@@ -52973,15 +53412,18 @@
         <v>19.0</v>
       </c>
       <c r="DH148" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="DI148" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C149" t="n">
         <v>0.0</v>
@@ -53312,14 +53754,17 @@
       </c>
       <c r="DH149" t="n">
         <v>207.0</v>
+      </c>
+      <c r="DI149" t="n">
+        <v>212.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B150" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C150" t="n">
         <v>0.0</v>
@@ -53649,15 +54094,18 @@
         <v>42.0</v>
       </c>
       <c r="DH150" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="DI150" t="n">
         <v>42.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C151" t="n">
         <v>0.0</v>
@@ -53987,15 +54435,18 @@
         <v>9.0</v>
       </c>
       <c r="DH151" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DI151" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B152" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C152" t="n">
         <v>0.0</v>
@@ -54325,15 +54776,18 @@
         <v>15.0</v>
       </c>
       <c r="DH152" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="DI152" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B153" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C153" t="n">
         <v>0.0</v>
@@ -54664,14 +55118,17 @@
       </c>
       <c r="DH153" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DI153" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B154" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -55001,15 +55458,18 @@
         <v>0.0</v>
       </c>
       <c r="DH154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B155" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C155" t="n">
         <v>0.0</v>
@@ -55340,14 +55800,17 @@
       </c>
       <c r="DH155" t="n">
         <v>1547.0</v>
+      </c>
+      <c r="DI155" t="n">
+        <v>1665.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C156" t="n">
         <v>0.0</v>
@@ -55678,14 +56141,17 @@
       </c>
       <c r="DH156" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DI156" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C157" t="n">
         <v>0.0</v>
@@ -56015,15 +56481,18 @@
         <v>6.0</v>
       </c>
       <c r="DH157" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DI157" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C158" t="n">
         <v>0.0</v>
@@ -56354,14 +56823,17 @@
       </c>
       <c r="DH158" t="n">
         <v>421.0</v>
+      </c>
+      <c r="DI158" t="n">
+        <v>473.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C159" t="n">
         <v>0.0</v>
@@ -56691,15 +57163,18 @@
         <v>0.0</v>
       </c>
       <c r="DH159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C160" t="n">
         <v>0.0</v>
@@ -57030,14 +57505,17 @@
       </c>
       <c r="DH160" t="n">
         <v>27.0</v>
+      </c>
+      <c r="DI160" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C161" t="n">
         <v>0.0</v>
@@ -57367,15 +57845,18 @@
         <v>21.0</v>
       </c>
       <c r="DH161" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="DI161" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C162" t="n">
         <v>0.0</v>
@@ -57706,14 +58187,17 @@
       </c>
       <c r="DH162" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DI162" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B163" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C163" t="n">
         <v>0.0</v>
@@ -58043,15 +58527,18 @@
         <v>33.0</v>
       </c>
       <c r="DH163" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DI163" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B164" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C164" t="n">
         <v>0.0</v>
@@ -58381,15 +58868,18 @@
         <v>117.0</v>
       </c>
       <c r="DH164" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="DI164" t="n">
         <v>131.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B165" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C165" t="n">
         <v>0.0</v>
@@ -58720,14 +59210,17 @@
       </c>
       <c r="DH165" t="n">
         <v>250.0</v>
+      </c>
+      <c r="DI165" t="n">
+        <v>282.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B166" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C166" t="n">
         <v>0.0</v>
@@ -59057,15 +59550,18 @@
         <v>251.0</v>
       </c>
       <c r="DH166" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="DI166" t="n">
         <v>255.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B167" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C167" t="n">
         <v>0.0</v>
@@ -59395,15 +59891,18 @@
         <v>2.0</v>
       </c>
       <c r="DH167" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI167" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B168" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C168" t="n">
         <v>0.0</v>
@@ -59734,14 +60233,17 @@
       </c>
       <c r="DH168" t="n">
         <v>454.0</v>
+      </c>
+      <c r="DI168" t="n">
+        <v>494.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B169" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C169" t="n">
         <v>0.0</v>
@@ -60072,14 +60574,17 @@
       </c>
       <c r="DH169" t="n">
         <v>68.0</v>
+      </c>
+      <c r="DI169" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B170" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C170" t="n">
         <v>0.0</v>
@@ -60409,15 +60914,18 @@
         <v>1.0</v>
       </c>
       <c r="DH170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI170" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B171" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C171" t="n">
         <v>0.0</v>
@@ -60748,14 +61256,17 @@
       </c>
       <c r="DH171" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DI171" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B172" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C172" t="n">
         <v>0.0</v>
@@ -61085,15 +61596,18 @@
         <v>14.0</v>
       </c>
       <c r="DH172" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DI172" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B173" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C173" t="n">
         <v>0.0</v>
@@ -61424,14 +61938,17 @@
       </c>
       <c r="DH173" t="n">
         <v>1737.0</v>
+      </c>
+      <c r="DI173" t="n">
+        <v>1831.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B174" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C174" t="n">
         <v>0.0</v>
@@ -61762,14 +62279,17 @@
       </c>
       <c r="DH174" t="n">
         <v>881.0</v>
+      </c>
+      <c r="DI174" t="n">
+        <v>886.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C175" t="n">
         <v>0.0</v>
@@ -62099,15 +62619,18 @@
         <v>35.0</v>
       </c>
       <c r="DH175" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="DI175" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B176" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C176" t="n">
         <v>0.0</v>
@@ -62437,15 +62960,18 @@
         <v>1.0</v>
       </c>
       <c r="DH176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B177" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C177" t="n">
         <v>0.0</v>
@@ -62776,14 +63302,17 @@
       </c>
       <c r="DH177" t="n">
         <v>353.0</v>
+      </c>
+      <c r="DI177" t="n">
+        <v>360.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B178" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C178" t="n">
         <v>0.0</v>
@@ -63114,14 +63643,17 @@
       </c>
       <c r="DH178" t="n">
         <v>156.0</v>
+      </c>
+      <c r="DI178" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B179" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C179" t="n">
         <v>0.0</v>
@@ -63451,15 +63983,18 @@
         <v>11.0</v>
       </c>
       <c r="DH179" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DI179" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B180" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C180" t="n">
         <v>0.0</v>
@@ -63790,14 +64325,17 @@
       </c>
       <c r="DH180" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DI180" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B181" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C181" t="n">
         <v>0.0</v>
@@ -64128,14 +64666,17 @@
       </c>
       <c r="DH181" t="n">
         <v>813.0</v>
+      </c>
+      <c r="DI181" t="n">
+        <v>1028.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B182" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C182" t="n">
         <v>0.0</v>
@@ -64465,15 +65006,18 @@
         <v>53.0</v>
       </c>
       <c r="DH182" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="DI182" t="n">
         <v>53.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B183" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C183" t="n">
         <v>0.0</v>
@@ -64803,15 +65347,18 @@
         <v>4.0</v>
       </c>
       <c r="DH183" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DI183" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B184" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C184" t="n">
         <v>0.0</v>
@@ -65142,14 +65689,17 @@
       </c>
       <c r="DH184" t="n">
         <v>164.0</v>
+      </c>
+      <c r="DI184" t="n">
+        <v>166.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C185" t="n">
         <v>0.0</v>
@@ -65479,15 +66029,18 @@
         <v>14.0</v>
       </c>
       <c r="DH185" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="DI185" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B186" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C186" t="n">
         <v>0.0</v>
@@ -65818,14 +66371,17 @@
       </c>
       <c r="DH186" t="n">
         <v>196.0</v>
+      </c>
+      <c r="DI186" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B187" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C187" t="n">
         <v>0.0</v>
@@ -66155,15 +66711,18 @@
         <v>138.0</v>
       </c>
       <c r="DH187" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="DI187" t="n">
         <v>177.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C188" t="n">
         <v>0.0</v>
@@ -66494,14 +67053,17 @@
       </c>
       <c r="DH188" t="n">
         <v>167.0</v>
+      </c>
+      <c r="DI188" t="n">
+        <v>174.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B189" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C189" t="n">
         <v>0.0</v>
@@ -66832,14 +67394,17 @@
       </c>
       <c r="DH189" t="n">
         <v>113.0</v>
+      </c>
+      <c r="DI189" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B190" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C190" t="n">
         <v>0.0</v>
@@ -67170,14 +67735,17 @@
       </c>
       <c r="DH190" t="n">
         <v>88.0</v>
+      </c>
+      <c r="DI190" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B191" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C191" t="n">
         <v>0.0</v>
@@ -67508,14 +68076,17 @@
       </c>
       <c r="DH191" t="n">
         <v>2838.0</v>
+      </c>
+      <c r="DI191" t="n">
+        <v>2843.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B192" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C192" t="n">
         <v>0.0</v>
@@ -67845,15 +68416,18 @@
         <v>14.0</v>
       </c>
       <c r="DH192" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="DI192" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B193" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C193" t="n">
         <v>0.0</v>
@@ -68183,15 +68757,18 @@
         <v>8.0</v>
       </c>
       <c r="DH193" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="DI193" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B194" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C194" t="n">
         <v>0.0</v>
@@ -68522,14 +69099,17 @@
       </c>
       <c r="DH194" t="n">
         <v>793.0</v>
+      </c>
+      <c r="DI194" t="n">
+        <v>809.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B195" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C195" t="n">
         <v>0.0</v>
@@ -68859,15 +69439,18 @@
         <v>2.0</v>
       </c>
       <c r="DH195" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI195" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C196" t="n">
         <v>0.0</v>
@@ -69197,15 +69780,18 @@
         <v>1.0</v>
       </c>
       <c r="DH196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI196" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C197" t="n">
         <v>0.0</v>
@@ -69536,14 +70122,17 @@
       </c>
       <c r="DH197" t="n">
         <v>99.0</v>
+      </c>
+      <c r="DI197" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C198" t="n">
         <v>0.0</v>
@@ -69874,14 +70463,17 @@
       </c>
       <c r="DH198" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DI198" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C199" t="n">
         <v>0.0</v>
@@ -70212,14 +70804,17 @@
       </c>
       <c r="DH199" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DI199" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C200" t="n">
         <v>0.0</v>
@@ -70549,15 +71144,18 @@
         <v>3.0</v>
       </c>
       <c r="DH200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI200" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C201" t="n">
         <v>0.0</v>
@@ -70887,15 +71485,18 @@
         <v>33.0</v>
       </c>
       <c r="DH201" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="DI201" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C202" t="n">
         <v>0.0</v>
@@ -71225,15 +71826,18 @@
         <v>231.0</v>
       </c>
       <c r="DH202" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="DI202" t="n">
         <v>276.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C203" t="n">
         <v>0.0</v>
@@ -71563,15 +72167,18 @@
         <v>3.0</v>
       </c>
       <c r="DH203" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI203" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C204" t="n">
         <v>0.0</v>
@@ -71902,14 +72509,17 @@
       </c>
       <c r="DH204" t="n">
         <v>253.0</v>
+      </c>
+      <c r="DI204" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B205" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C205" t="n">
         <v>0.0</v>
@@ -72239,15 +72849,18 @@
         <v>21.0</v>
       </c>
       <c r="DH205" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DI205" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B206" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C206" t="n">
         <v>0.0</v>
@@ -72578,14 +73191,17 @@
       </c>
       <c r="DH206" t="n">
         <v>99.0</v>
+      </c>
+      <c r="DI206" t="n">
+        <v>101.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B207" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C207" t="n">
         <v>0.0</v>
@@ -72916,14 +73532,17 @@
       </c>
       <c r="DH207" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DI207" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B208" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C208" t="n">
         <v>0.0</v>
@@ -73254,14 +73873,17 @@
       </c>
       <c r="DH208" t="n">
         <v>85.0</v>
+      </c>
+      <c r="DI208" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B209" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C209" t="n">
         <v>0.0</v>
@@ -73591,15 +74213,18 @@
         <v>4.0</v>
       </c>
       <c r="DH209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="DI209" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B210" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C210" t="n">
         <v>0.0</v>
@@ -73929,15 +74554,18 @@
         <v>12.0</v>
       </c>
       <c r="DH210" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="DI210" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B211" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C211" t="n">
         <v>0.0</v>
@@ -74268,14 +74896,17 @@
       </c>
       <c r="DH211" t="n">
         <v>29.0</v>
+      </c>
+      <c r="DI211" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B212" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C212" t="n">
         <v>0.0</v>
@@ -74605,15 +75236,18 @@
         <v>1.0</v>
       </c>
       <c r="DH212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B213" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C213" t="n">
         <v>0.0</v>
@@ -74944,14 +75578,17 @@
       </c>
       <c r="DH213" t="n">
         <v>260.0</v>
+      </c>
+      <c r="DI213" t="n">
+        <v>263.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B214" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C214" t="n">
         <v>0.0</v>
@@ -75281,15 +75918,18 @@
         <v>30.0</v>
       </c>
       <c r="DH214" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="DI214" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B215" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C215" t="n">
         <v>0.0</v>
@@ -75620,14 +76260,17 @@
       </c>
       <c r="DH215" t="n">
         <v>392.0</v>
+      </c>
+      <c r="DI215" t="n">
+        <v>422.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B216" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C216" t="n">
         <v>0.0</v>
@@ -75957,15 +76600,18 @@
         <v>3.0</v>
       </c>
       <c r="DH216" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="DI216" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B217" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C217" t="n">
         <v>0.0</v>
@@ -76296,14 +76942,17 @@
       </c>
       <c r="DH217" t="n">
         <v>355.0</v>
+      </c>
+      <c r="DI217" t="n">
+        <v>373.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B218" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C218" t="n">
         <v>0.0</v>
@@ -76633,15 +77282,18 @@
         <v>5.0</v>
       </c>
       <c r="DH218" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="DI218" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B219" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C219" t="n">
         <v>0.0</v>
@@ -76971,15 +77623,18 @@
         <v>0.0</v>
       </c>
       <c r="DH219" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI219" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C220" t="n">
         <v>0.0</v>
@@ -77309,15 +77964,18 @@
         <v>0.0</v>
       </c>
       <c r="DH220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B221" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C221" t="n">
         <v>0.0</v>
@@ -77647,15 +78305,18 @@
         <v>3.0</v>
       </c>
       <c r="DH221" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="DI221" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B222" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C222" t="n">
         <v>0.0</v>
@@ -77986,14 +78647,17 @@
       </c>
       <c r="DH222" t="n">
         <v>24.0</v>
+      </c>
+      <c r="DI222" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B223" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C223" t="n">
         <v>0.0</v>
@@ -78324,14 +78988,17 @@
       </c>
       <c r="DH223" t="n">
         <v>9386.0</v>
+      </c>
+      <c r="DI223" t="n">
+        <v>9846.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B224" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C224" t="n">
         <v>0.0</v>
@@ -78662,14 +79329,17 @@
       </c>
       <c r="DH224" t="n">
         <v>313.0</v>
+      </c>
+      <c r="DI224" t="n">
+        <v>318.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B225" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C225" t="n">
         <v>0.0</v>
@@ -78999,15 +79669,18 @@
         <v>1.0</v>
       </c>
       <c r="DH225" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DI225" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B226" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C226" t="n">
         <v>0.0</v>
@@ -79338,14 +80011,17 @@
       </c>
       <c r="DH226" t="n">
         <v>14.0</v>
+      </c>
+      <c r="DI226" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B227" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -79675,15 +80351,18 @@
         <v>0.0</v>
       </c>
       <c r="DH227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DI227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B228" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C228" t="n">
         <v>0.0</v>
@@ -80013,15 +80692,18 @@
         <v>663.0</v>
       </c>
       <c r="DH228" t="n">
+        <v>665.0</v>
+      </c>
+      <c r="DI228" t="n">
         <v>665.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B229" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C229" t="n">
         <v>0.0</v>
@@ -80352,14 +81034,17 @@
       </c>
       <c r="DH229" t="n">
         <v>206.0</v>
+      </c>
+      <c r="DI229" t="n">
+        <v>219.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B230" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C230" t="n">
         <v>0.0</v>
@@ -80690,14 +81375,17 @@
       </c>
       <c r="DH230" t="n">
         <v>6596.0</v>
+      </c>
+      <c r="DI230" t="n">
+        <v>6914.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B231" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C231" t="n">
         <v>0.0</v>
@@ -81028,14 +81716,17 @@
       </c>
       <c r="DH231" t="n">
         <v>26.0</v>
+      </c>
+      <c r="DI231" t="n">
+        <v>28.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B232" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C232" t="n">
         <v>0.0</v>
@@ -81365,15 +82056,18 @@
         <v>20.0</v>
       </c>
       <c r="DH232" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="DI232" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B233" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C233" t="n">
         <v>0.0</v>
@@ -81703,15 +82397,18 @@
         <v>44.0</v>
       </c>
       <c r="DH233" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="DI233" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B234" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C234" t="n">
         <v>0.0</v>
@@ -82041,15 +82738,18 @@
         <v>2.0</v>
       </c>
       <c r="DH234" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DI234" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B235" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C235" t="n">
         <v>0.0</v>
@@ -82380,14 +83080,17 @@
       </c>
       <c r="DH235" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DI235" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B236" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C236" t="n">
         <v>0.0</v>
@@ -82717,15 +83420,18 @@
         <v>85.0</v>
       </c>
       <c r="DH236" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DI236" t="n">
         <v>85.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B237" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C237" t="n">
         <v>0.0</v>
@@ -83056,14 +83762,17 @@
       </c>
       <c r="DH237" t="n">
         <v>59.0</v>
+      </c>
+      <c r="DI237" t="n">
+        <v>65.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B238" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C238" t="n">
         <v>0.0</v>
@@ -83394,14 +84103,17 @@
       </c>
       <c r="DH238" t="n">
         <v>346.0</v>
+      </c>
+      <c r="DI238" t="n">
+        <v>372.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B239" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C239" t="n">
         <v>0.0</v>
@@ -83732,14 +84444,17 @@
       </c>
       <c r="DH239" t="n">
         <v>1950.0</v>
+      </c>
+      <c r="DI239" t="n">
+        <v>1960.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B240" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C240" t="n">
         <v>0.0</v>
@@ -84070,14 +84785,17 @@
       </c>
       <c r="DH240" t="n">
         <v>128.0</v>
+      </c>
+      <c r="DI240" t="n">
+        <v>132.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B241" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C241" t="n">
         <v>0.0</v>
@@ -84408,14 +85126,17 @@
       </c>
       <c r="DH241" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DI241" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B242" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C242" t="n">
         <v>0.0</v>
@@ -84746,14 +85467,17 @@
       </c>
       <c r="DH242" t="n">
         <v>241.0</v>
+      </c>
+      <c r="DI242" t="n">
+        <v>244.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B243" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C243" t="n">
         <v>0.0</v>
@@ -85084,14 +85808,17 @@
       </c>
       <c r="DH243" t="n">
         <v>1003.0</v>
+      </c>
+      <c r="DI243" t="n">
+        <v>1045.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B244" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C244" t="n">
         <v>0.0</v>
@@ -85422,14 +86149,17 @@
       </c>
       <c r="DH244" t="n">
         <v>144.0</v>
+      </c>
+      <c r="DI244" t="n">
+        <v>147.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B245" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C245" t="n">
         <v>0.0</v>
@@ -85759,15 +86489,18 @@
         <v>16.0</v>
       </c>
       <c r="DH245" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="DI245" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B246" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C246" t="n">
         <v>0.0</v>
@@ -86098,14 +86831,17 @@
       </c>
       <c r="DH246" t="n">
         <v>230.0</v>
+      </c>
+      <c r="DI246" t="n">
+        <v>250.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B247" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C247" t="n">
         <v>0.0</v>
@@ -86435,15 +87171,18 @@
         <v>8.0</v>
       </c>
       <c r="DH247" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="DI247" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B248" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C248" t="n">
         <v>0.0</v>
@@ -86774,14 +87513,17 @@
       </c>
       <c r="DH248" t="n">
         <v>114.0</v>
+      </c>
+      <c r="DI248" t="n">
+        <v>118.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B249" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C249" t="n">
         <v>0.0</v>
@@ -87112,14 +87854,17 @@
       </c>
       <c r="DH249" t="n">
         <v>1498.0</v>
+      </c>
+      <c r="DI249" t="n">
+        <v>1614.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B250" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C250" t="n">
         <v>0.0</v>
@@ -87450,14 +88195,17 @@
       </c>
       <c r="DH250" t="n">
         <v>80.0</v>
+      </c>
+      <c r="DI250" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B251" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C251" t="n">
         <v>0.0</v>
@@ -87788,14 +88536,17 @@
       </c>
       <c r="DH251" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DI251" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B252" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C252" t="n">
         <v>0.0</v>
@@ -88125,15 +88876,18 @@
         <v>63.0</v>
       </c>
       <c r="DH252" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="DI252" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B253" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C253" t="n">
         <v>0.0</v>
@@ -88463,15 +89217,18 @@
         <v>76.0</v>
       </c>
       <c r="DH253" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="DI253" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B254" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C254" t="n">
         <v>0.0</v>
@@ -88802,14 +89559,17 @@
       </c>
       <c r="DH254" t="n">
         <v>15.0</v>
+      </c>
+      <c r="DI254" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B255" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C255" t="n">
         <v>0.0</v>
@@ -89139,15 +89899,18 @@
         <v>17.0</v>
       </c>
       <c r="DH255" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="DI255" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B256" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C256" t="n">
         <v>0.0</v>
@@ -89478,14 +90241,17 @@
       </c>
       <c r="DH256" t="n">
         <v>40.0</v>
+      </c>
+      <c r="DI256" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B257" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C257" t="n">
         <v>0.0</v>
@@ -89816,14 +90582,17 @@
       </c>
       <c r="DH257" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DI257" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B258" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C258" t="n">
         <v>0.0</v>
@@ -90154,14 +90923,17 @@
       </c>
       <c r="DH258" t="n">
         <v>125921.0</v>
+      </c>
+      <c r="DI258" t="n">
+        <v>131917.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -90273,13 +91045,14 @@
       <c r="DF259"/>
       <c r="DG259"/>
       <c r="DH259"/>
+      <c r="DI259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B260" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C260" t="n">
         <v>0.0</v>
@@ -90610,14 +91383,17 @@
       </c>
       <c r="DH260" t="n">
         <v>242.0</v>
+      </c>
+      <c r="DI260" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -90729,13 +91505,14 @@
       <c r="DF261"/>
       <c r="DG261"/>
       <c r="DH261"/>
+      <c r="DI261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B262" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -90847,13 +91624,14 @@
       <c r="DF262"/>
       <c r="DG262"/>
       <c r="DH262"/>
+      <c r="DI262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B263" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -90965,13 +91743,14 @@
       <c r="DF263"/>
       <c r="DG263"/>
       <c r="DH263"/>
+      <c r="DI263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B264" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -91083,13 +91862,14 @@
       <c r="DF264"/>
       <c r="DG264"/>
       <c r="DH264"/>
+      <c r="DI264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B265" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -91201,13 +91981,14 @@
       <c r="DF265"/>
       <c r="DG265"/>
       <c r="DH265"/>
+      <c r="DI265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B266" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -91319,13 +92100,14 @@
       <c r="DF266"/>
       <c r="DG266"/>
       <c r="DH266"/>
+      <c r="DI266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B267" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -91437,13 +92219,14 @@
       <c r="DF267"/>
       <c r="DG267"/>
       <c r="DH267"/>
+      <c r="DI267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B268" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -91555,6 +92338,7 @@
       <c r="DF268"/>
       <c r="DG268"/>
       <c r="DH268"/>
+      <c r="DI268"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
